--- a/latest_report.xlsx
+++ b/latest_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="184">
   <si>
     <t>Ticker</t>
   </si>
@@ -181,40 +181,43 @@
     <t>Source</t>
   </si>
   <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
     <t>ABBV</t>
   </si>
   <si>
-    <t>AES</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
     <t>AOS</t>
   </si>
   <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>ACN</t>
+    <t>FTAI</t>
   </si>
   <si>
     <t>RKLB</t>
   </si>
   <si>
-    <t>FTAI</t>
+    <t>COOP</t>
   </si>
   <si>
     <t>CRDO</t>
@@ -223,120 +226,123 @@
     <t>FN</t>
   </si>
   <si>
+    <t>HQY</t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>INSM</t>
+  </si>
+  <si>
+    <t>SFM</t>
+  </si>
+  <si>
     <t>CRS</t>
   </si>
   <si>
-    <t>INSM</t>
-  </si>
-  <si>
-    <t>COOP</t>
-  </si>
-  <si>
-    <t>HQY</t>
-  </si>
-  <si>
-    <t>SFM</t>
+    <t>AACIW</t>
   </si>
   <si>
     <t>AACBR</t>
   </si>
   <si>
+    <t>AACB</t>
+  </si>
+  <si>
+    <t>AACI</t>
+  </si>
+  <si>
     <t>AAME</t>
   </si>
   <si>
-    <t>AACI</t>
-  </si>
-  <si>
-    <t>AACB</t>
+    <t>AACBU</t>
   </si>
   <si>
     <t>AACG</t>
   </si>
   <si>
-    <t>AACIW</t>
-  </si>
-  <si>
-    <t>AACBU</t>
-  </si>
-  <si>
     <t>AAOI</t>
   </si>
   <si>
     <t>AAL</t>
   </si>
   <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Utilities</t>
+    <t>Technology</t>
   </si>
   <si>
     <t>Financial Services</t>
   </si>
   <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
+    <t>Utilities - Diversified</t>
+  </si>
+  <si>
+    <t>Conglomerates</t>
+  </si>
+  <si>
+    <t>Diagnostics &amp; Research</t>
+  </si>
+  <si>
+    <t>Information Technology Services</t>
+  </si>
+  <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Insurance - Life</t>
+  </si>
+  <si>
     <t>Drug Manufacturers - General</t>
   </si>
   <si>
-    <t>Utilities - Diversified</t>
-  </si>
-  <si>
-    <t>Insurance - Life</t>
-  </si>
-  <si>
     <t>Specialty Industrial Machinery</t>
   </si>
   <si>
-    <t>Semiconductors</t>
-  </si>
-  <si>
-    <t>Diagnostics &amp; Research</t>
-  </si>
-  <si>
-    <t>Medical Devices</t>
-  </si>
-  <si>
-    <t>Conglomerates</t>
-  </si>
-  <si>
-    <t>Software - Application</t>
-  </si>
-  <si>
-    <t>Information Technology Services</t>
+    <t>Rental &amp; Leasing Services</t>
   </si>
   <si>
     <t>Aerospace &amp; Defense</t>
   </si>
   <si>
-    <t>Rental &amp; Leasing Services</t>
+    <t>Mortgage Finance</t>
   </si>
   <si>
     <t>Electronic Components</t>
   </si>
   <si>
+    <t>Health Information Services</t>
+  </si>
+  <si>
+    <t>Banks - Regional</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Grocery Stores</t>
+  </si>
+  <si>
     <t>Metal Fabrication</t>
   </si>
   <si>
-    <t>Biotechnology</t>
-  </si>
-  <si>
-    <t>Mortgage Finance</t>
-  </si>
-  <si>
-    <t>Health Information Services</t>
-  </si>
-  <si>
-    <t>Grocery Stores</t>
-  </si>
-  <si>
     <t>Shell Companies</t>
   </si>
   <si>
@@ -349,33 +355,33 @@
     <t>Airlines</t>
   </si>
   <si>
+    <t>Management of Companies &amp; Support Services</t>
+  </si>
+  <si>
     <t>Health Care &amp; Social Assistance</t>
   </si>
   <si>
+    <t>Professional, Scientific &amp; Technical Services</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Computer &amp; Electronic Products</t>
+  </si>
+  <si>
     <t>Finance &amp; Insurance</t>
   </si>
   <si>
     <t>Machinery</t>
   </si>
   <si>
-    <t>Computer &amp; Electronic Products</t>
-  </si>
-  <si>
-    <t>Management of Companies &amp; Support Services</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Professional, Scientific &amp; Technical Services</t>
+    <t>Administrative &amp; Support Services</t>
   </si>
   <si>
     <t>Transportation Equipment</t>
   </si>
   <si>
-    <t>Administrative &amp; Support Services</t>
-  </si>
-  <si>
     <t>Retail Trade</t>
   </si>
   <si>
@@ -397,49 +403,52 @@
     <t>Manufacturing</t>
   </si>
   <si>
+    <t>4.0%</t>
+  </si>
+  <si>
+    <t>2.0%</t>
+  </si>
+  <si>
+    <t>2.3%</t>
+  </si>
+  <si>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>1.9%</t>
+  </si>
+  <si>
+    <t>3.6%</t>
+  </si>
+  <si>
+    <t>1.8%</t>
+  </si>
+  <si>
     <t>2.1%</t>
   </si>
   <si>
-    <t>4.0%</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
-    <t>2.0%</t>
-  </si>
-  <si>
-    <t>3.6%</t>
-  </si>
-  <si>
-    <t>2.3%</t>
-  </si>
-  <si>
-    <t>1.9%</t>
-  </si>
-  <si>
-    <t>2.5%</t>
+    <t>4.7%</t>
   </si>
   <si>
     <t>6.4%</t>
   </si>
   <si>
-    <t>4.7%</t>
-  </si>
-  <si>
     <t>5.0%</t>
   </si>
   <si>
     <t>3.3%</t>
   </si>
   <si>
-    <t>2.7%</t>
+    <t>3.2%</t>
+  </si>
+  <si>
+    <t>2.4%</t>
   </si>
   <si>
     <t>3.5%</t>
   </si>
   <si>
-    <t>3.2%</t>
+    <t>2.8%</t>
   </si>
   <si>
     <t>6.3%</t>
@@ -451,42 +460,42 @@
     <t>7.8%</t>
   </si>
   <si>
+    <t>2025-07-30 , 2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-07-24 , 2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-08-19 , 2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-09-24 , 2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-09-10 , 2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-07-28 , 2025-08-01</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
     <t>2025-07-23 , 2025-07-28</t>
   </si>
   <si>
-    <t>2025-07-30 , 2025-08-04</t>
-  </si>
-  <si>
-    <t>2025-08-05</t>
-  </si>
-  <si>
     <t>2025-07-21 , 2025-07-25</t>
   </si>
   <si>
-    <t>2025-07-28 , 2025-08-01</t>
-  </si>
-  <si>
-    <t>2025-08-19 , 2025-08-25</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>2025-07-24 , 2025-07-28</t>
-  </si>
-  <si>
-    <t>2025-09-10 , 2025-09-15</t>
-  </si>
-  <si>
-    <t>2025-09-24 , 2025-09-29</t>
+    <t>2025-07-29</t>
   </si>
   <si>
     <t>2025-08-06 , 2025-08-11</t>
   </si>
   <si>
-    <t>2025-07-29</t>
-  </si>
-  <si>
     <t>2025-09-02 , 2025-09-08</t>
   </si>
   <si>
@@ -496,6 +505,9 @@
     <t>2025-09-01 , 2025-09-05</t>
   </si>
   <si>
+    <t>2025-07-22 , 2025-07-28</t>
+  </si>
+  <si>
     <t>2025-05-07</t>
   </si>
   <si>
@@ -514,12 +526,12 @@
     <t>2</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -529,10 +541,10 @@
     <t>Buy</t>
   </si>
   <si>
+    <t>Sell</t>
+  </si>
+  <si>
     <t>Strong Buy</t>
-  </si>
-  <si>
-    <t>Sell</t>
   </si>
   <si>
     <t>2025-06-26</t>
@@ -917,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC29"/>
+  <dimension ref="A1:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,133 +1129,133 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1">
-        <v>187.95</v>
+        <v>10.8728</v>
       </c>
       <c r="H2">
-        <v>331.99</v>
+        <v>7.74</v>
       </c>
       <c r="I2">
-        <v>1766.4</v>
+        <v>711.92</v>
       </c>
       <c r="J2">
-        <v>1762.78</v>
+        <v>707.75</v>
       </c>
       <c r="K2" s="1">
-        <v>185.5304</v>
+        <v>10.6288</v>
       </c>
       <c r="L2" s="2">
-        <v>0.01304152850422358</v>
+        <v>0.02295649555923526</v>
       </c>
       <c r="M2" s="1">
-        <v>188.51445</v>
+        <v>12.99015</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.002994200179349764</v>
+        <v>-0.1629965781765415</v>
       </c>
       <c r="O2">
-        <v>158.47</v>
+        <v>19.64</v>
       </c>
       <c r="P2" s="2">
-        <v>0.1860289013693443</v>
+        <v>-0.4463951120162933</v>
       </c>
       <c r="Q2">
-        <v>-0.1872851625147121</v>
+        <v>-0.04029018605612045</v>
       </c>
       <c r="R2">
-        <v>0.09799759744347475</v>
+        <v>-0.01306245418149383</v>
       </c>
       <c r="S2">
-        <v>52.00507959939979</v>
+        <v>52.19770516423628</v>
       </c>
       <c r="T2">
-        <v>41.88</v>
+        <v>49.35</v>
       </c>
       <c r="U2">
-        <v>53.76</v>
+        <v>55.66</v>
       </c>
       <c r="V2">
-        <v>-0.6396736574548734</v>
+        <v>-0.0661786857824604</v>
       </c>
       <c r="W2">
-        <v>73.62586629508382</v>
+        <v>56.55552120855695</v>
       </c>
       <c r="X2">
-        <v>3.884557093476379</v>
+        <v>0.4324595811559776</v>
       </c>
       <c r="Y2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z2" s="1">
-        <v>182.9240005493164</v>
+        <v>10.61666669845581</v>
       </c>
       <c r="AA2" s="1">
-        <v>200.115050420741</v>
+        <v>11.96015110594257</v>
       </c>
       <c r="AB2" s="1">
-        <v>165.7329506778918</v>
+        <v>9.273182290969043</v>
       </c>
       <c r="AC2">
-        <v>14.7</v>
+        <v>38.84</v>
       </c>
       <c r="AD2">
-        <v>2.5</v>
+        <v>2.09</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.0083</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="AF2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AG2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AI2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AJ2">
+        <v>3</v>
+      </c>
+      <c r="AK2">
+        <v>5</v>
+      </c>
+      <c r="AL2">
         <v>4</v>
       </c>
-      <c r="AK2">
-        <v>12</v>
-      </c>
-      <c r="AL2">
-        <v>12</v>
-      </c>
       <c r="AM2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2" s="2">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AR2" s="2">
         <v>0.1428571428571428</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>0</v>
       </c>
       <c r="AS2" s="2">
         <v>0</v>
@@ -1252,31 +1264,31 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="AU2" s="2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AV2" s="1">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="AW2" s="2">
-        <v>-0.09550412343708428</v>
+        <v>-0.5401368552718711</v>
       </c>
       <c r="AX2" s="1">
-        <v>208.86444</v>
+        <v>13.66667</v>
       </c>
       <c r="AY2" s="2">
-        <v>0.1112766161213089</v>
+        <v>0.2569595688323155</v>
       </c>
       <c r="AZ2" s="1">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="BA2" s="2">
-        <v>0.3301409949454643</v>
+        <v>1.115370465749393</v>
       </c>
       <c r="BB2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -1284,166 +1296,166 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1">
-        <v>10.813</v>
+        <v>149.55</v>
       </c>
       <c r="H3">
-        <v>7.7</v>
+        <v>80.48</v>
       </c>
       <c r="I3">
-        <v>711.92</v>
+        <v>538.1799999999999</v>
       </c>
       <c r="J3">
-        <v>707.75</v>
+        <v>537.35</v>
       </c>
       <c r="K3" s="1">
-        <v>10.6288</v>
+        <v>143.6144</v>
       </c>
       <c r="L3" s="2">
-        <v>0.01733027246725882</v>
+        <v>0.04133011731414136</v>
       </c>
       <c r="M3" s="1">
-        <v>12.99015</v>
+        <v>139.45575</v>
       </c>
       <c r="N3" s="2">
-        <v>-0.1676000662040084</v>
+        <v>0.07238317530829684</v>
       </c>
       <c r="O3">
-        <v>19.64</v>
+        <v>113.16</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.4494399185336049</v>
+        <v>0.3215800636267234</v>
       </c>
       <c r="Q3">
-        <v>-0.04490103563767356</v>
+        <v>0.5281154033489486</v>
       </c>
       <c r="R3">
-        <v>-0.01398462409780445</v>
+        <v>0.177717066303829</v>
       </c>
       <c r="S3">
-        <v>51.39479576059423</v>
+        <v>56.80217052055703</v>
       </c>
       <c r="T3">
-        <v>49</v>
+        <v>44.81</v>
       </c>
       <c r="U3">
-        <v>55.59</v>
+        <v>31.43</v>
       </c>
       <c r="V3">
-        <v>-0.5974313729219782</v>
+        <v>3.688558193032627</v>
       </c>
       <c r="W3">
-        <v>56.48128772421487</v>
+        <v>60.11149058868387</v>
       </c>
       <c r="X3">
-        <v>0.4324595811559776</v>
+        <v>3.043116579952759</v>
       </c>
       <c r="Y3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Z3" s="1">
-        <v>10.61666669845581</v>
+        <v>129.0813837687174</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.96015110594257</v>
+        <v>220.591533321873</v>
       </c>
       <c r="AB3" s="1">
-        <v>9.273182290969043</v>
+        <v>37.57123421556193</v>
       </c>
       <c r="AC3">
-        <v>38.84</v>
+        <v>10.31</v>
       </c>
       <c r="AD3">
-        <v>2.09</v>
+        <v>3.4</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.06270000000000001</v>
+        <v>0.019199999</v>
       </c>
       <c r="AF3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AG3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AI3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AJ3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK3">
+        <v>9</v>
+      </c>
+      <c r="AL3">
         <v>5</v>
       </c>
-      <c r="AL3">
-        <v>4</v>
-      </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
         <v>2</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
       <c r="AO3" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="AP3" s="2">
-        <v>0.3571428571428572</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AQ3" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AR3" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="AS3" s="2">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="AT3" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="AU3" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="AV3" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AW3" s="2">
-        <v>-0.5375936372884491</v>
+        <v>-0.3313273152791709</v>
       </c>
       <c r="AX3" s="1">
-        <v>13.66667</v>
+        <v>151.88222</v>
       </c>
       <c r="AY3" s="2">
-        <v>0.2639110330158142</v>
+        <v>0.01559491808759597</v>
       </c>
       <c r="AZ3" s="1">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="BA3" s="2">
-        <v>1.127069268473134</v>
+        <v>0.2303577398863255</v>
       </c>
       <c r="BB3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -1451,166 +1463,166 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1">
-        <v>103.15</v>
+        <v>119.65</v>
       </c>
       <c r="H4">
-        <v>55.77</v>
+        <v>33.99</v>
       </c>
       <c r="I4">
-        <v>540.64</v>
+        <v>284.06</v>
       </c>
       <c r="J4">
-        <v>535.87</v>
+        <v>282.98</v>
       </c>
       <c r="K4" s="1">
-        <v>104.8996</v>
+        <v>111.1744</v>
       </c>
       <c r="L4" s="2">
-        <v>-0.0166788052575987</v>
+        <v>0.07623697541880145</v>
       </c>
       <c r="M4" s="1">
-        <v>106.99585</v>
+        <v>128.77965</v>
       </c>
       <c r="N4" s="2">
-        <v>-0.03594391745100393</v>
+        <v>-0.07089357674135624</v>
       </c>
       <c r="O4">
-        <v>78.39</v>
+        <v>134.13</v>
       </c>
       <c r="P4" s="2">
-        <v>0.3158566143640771</v>
+        <v>-0.1079549690598672</v>
       </c>
       <c r="Q4">
-        <v>-0.345948665840524</v>
+        <v>1.688986990978961</v>
       </c>
       <c r="R4">
-        <v>-0.5641514645859513</v>
+        <v>1.658044669888417</v>
       </c>
       <c r="S4">
-        <v>48.53715320651055</v>
+        <v>61.16418221909547</v>
       </c>
       <c r="T4">
-        <v>60.32</v>
+        <v>60.8</v>
       </c>
       <c r="U4">
-        <v>51</v>
+        <v>63.94</v>
       </c>
       <c r="V4">
-        <v>0.6389608483535252</v>
+        <v>2.49272204502284</v>
       </c>
       <c r="W4">
-        <v>44.57061868979157</v>
+        <v>70.90314567600794</v>
       </c>
       <c r="X4">
-        <v>1.795170003115737</v>
+        <v>2.799410846232624</v>
       </c>
       <c r="Y4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z4" s="1">
-        <v>103.9059992472331</v>
+        <v>119.2333320617676</v>
       </c>
       <c r="AA4" s="1">
-        <v>105.2148130802908</v>
+        <v>124.7213374458351</v>
       </c>
       <c r="AB4" s="1">
-        <v>102.5971854141753</v>
+        <v>113.7453266777</v>
       </c>
       <c r="AC4">
-        <v>9.529999999999999</v>
+        <v>4.11</v>
       </c>
       <c r="AD4">
-        <v>4.67</v>
+        <v>1.73</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.0177</v>
+        <v>0.0164</v>
       </c>
       <c r="AF4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AG4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AH4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AI4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="AP4" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AQ4" s="2">
-        <v>0.6153846153846154</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AR4" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AU4" s="2">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="1">
-        <v>94</v>
+        <v>113.2</v>
       </c>
       <c r="AW4" s="2">
-        <v>-0.08870576829859433</v>
+        <v>-0.05390722941913918</v>
       </c>
       <c r="AX4" s="1">
-        <v>105.61538</v>
+        <v>136.5125</v>
       </c>
       <c r="AY4" s="2">
-        <v>0.02390092098885115</v>
+        <v>0.140931884663602</v>
       </c>
       <c r="AZ4" s="1">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="BA4" s="2">
-        <v>0.16335433834222</v>
+        <v>0.3790221479314667</v>
       </c>
       <c r="BB4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -1618,115 +1630,115 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1">
-        <v>64.70999999999999</v>
+        <v>295.075</v>
       </c>
       <c r="H5">
-        <v>9.199999999999999</v>
+        <v>183.79</v>
       </c>
       <c r="I5">
-        <v>116.24</v>
+        <v>622.85</v>
       </c>
       <c r="J5">
-        <v>114.1</v>
+        <v>621.76</v>
       </c>
       <c r="K5" s="1">
-        <v>65.8546</v>
+        <v>306.807</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.01738071448311904</v>
+        <v>-0.03823902322958742</v>
       </c>
       <c r="M5" s="1">
-        <v>70.86494999999999</v>
+        <v>340.3652</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.0868546439389289</v>
+        <v>-0.1330635446867072</v>
       </c>
       <c r="O5">
-        <v>70.53</v>
+        <v>319.19</v>
       </c>
       <c r="P5" s="2">
-        <v>-0.08251807741386655</v>
+        <v>-0.07555061248785992</v>
       </c>
       <c r="Q5">
-        <v>-0.5123572502696447</v>
+        <v>-4.463857432015345</v>
       </c>
       <c r="R5">
-        <v>-0.6628521034878926</v>
+        <v>-1.862486186318798</v>
       </c>
       <c r="S5">
-        <v>48.74140720640853</v>
+        <v>39.34288017143989</v>
       </c>
       <c r="T5">
-        <v>33.54</v>
+        <v>35.27</v>
       </c>
       <c r="U5">
-        <v>25.8</v>
+        <v>40.76</v>
       </c>
       <c r="V5">
-        <v>-0.1851037223394738</v>
+        <v>-6.828373270988617</v>
       </c>
       <c r="W5">
-        <v>51.92244230951361</v>
+        <v>36.1652768582586</v>
       </c>
       <c r="X5">
-        <v>1.262268035721882</v>
+        <v>7.423530403400205</v>
       </c>
       <c r="Y5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z5" s="1">
-        <v>64.43033472696941</v>
+        <v>286.6793314615886</v>
       </c>
       <c r="AA5" s="1">
-        <v>67.61935346273739</v>
+        <v>307.3320577028446</v>
       </c>
       <c r="AB5" s="1">
-        <v>61.24131599120142</v>
+        <v>266.0266052203325</v>
       </c>
       <c r="AC5">
-        <v>3.97</v>
+        <v>8.65</v>
       </c>
       <c r="AD5">
-        <v>1.95</v>
+        <v>3.03</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.0344</v>
+        <v>0.0139</v>
       </c>
       <c r="AF5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AI5">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AL5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -1735,49 +1747,49 @@
         <v>1</v>
       </c>
       <c r="AO5" s="2">
-        <v>0.0625</v>
+        <v>0.16</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.625</v>
+        <v>0.28</v>
       </c>
       <c r="AR5" s="2">
         <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <v>0.0625</v>
+        <v>0.04</v>
       </c>
       <c r="AT5" s="2">
-        <v>0.3125</v>
+        <v>0.68</v>
       </c>
       <c r="AU5" s="2">
-        <v>0.0625</v>
+        <v>0.04</v>
       </c>
       <c r="AV5" s="1">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="AW5" s="2">
-        <v>-0.08823983928295463</v>
+        <v>-0.1087011776666949</v>
       </c>
       <c r="AX5" s="1">
-        <v>74.85538</v>
+        <v>340.79782</v>
       </c>
       <c r="AY5" s="2">
-        <v>0.1567822593107712</v>
+        <v>0.1549532152842498</v>
       </c>
       <c r="AZ5" s="1">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="BA5" s="2">
-        <v>0.2980992118683358</v>
+        <v>0.3386427179530628</v>
       </c>
       <c r="BB5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -1788,112 +1800,112 @@
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G6" s="1">
-        <v>143.27</v>
+        <v>386.29</v>
       </c>
       <c r="H6">
-        <v>232.3</v>
+        <v>164.64</v>
       </c>
       <c r="I6">
-        <v>1621.4</v>
+        <v>426.2</v>
       </c>
       <c r="J6">
-        <v>1610.1</v>
+        <v>426.8</v>
       </c>
       <c r="K6" s="1">
-        <v>109.8868</v>
+        <v>389.9786</v>
       </c>
       <c r="L6" s="2">
-        <v>0.3037962703436629</v>
+        <v>-0.009458467721049184</v>
       </c>
       <c r="M6" s="1">
-        <v>124.0299</v>
+        <v>446.36945</v>
       </c>
       <c r="N6" s="2">
-        <v>0.1551246917074029</v>
+        <v>-0.1345957927900307</v>
       </c>
       <c r="O6">
-        <v>117.15</v>
+        <v>469.01</v>
       </c>
       <c r="P6" s="2">
-        <v>0.2229620145113103</v>
+        <v>-0.1763715059380396</v>
       </c>
       <c r="Q6">
-        <v>7.716900569811997</v>
+        <v>-4.750083078235946</v>
       </c>
       <c r="R6">
-        <v>5.822414024339841</v>
+        <v>-1.599054910138683</v>
       </c>
       <c r="S6">
-        <v>78.05019019276887</v>
+        <v>42.7585491476725</v>
       </c>
       <c r="T6">
-        <v>84.94</v>
+        <v>18.06</v>
       </c>
       <c r="U6">
-        <v>81.33</v>
+        <v>27.48</v>
       </c>
       <c r="V6">
-        <v>17.71131958813931</v>
+        <v>-7.199827155526595</v>
       </c>
       <c r="W6">
-        <v>80.46522289811523</v>
+        <v>42.09548091898116</v>
       </c>
       <c r="X6">
-        <v>5.130590505518128</v>
+        <v>9.07118255452659</v>
       </c>
       <c r="Y6" t="s">
         <v>131</v>
       </c>
       <c r="Z6" s="1">
-        <v>135.4536605834961</v>
+        <v>455.4113291422527</v>
       </c>
       <c r="AA6" s="1">
-        <v>146.8741631772848</v>
+        <v>767.3477923514587</v>
       </c>
       <c r="AB6" s="1">
-        <v>124.0331579897074</v>
+        <v>143.4748659330467</v>
       </c>
       <c r="AC6">
-        <v>41.01</v>
+        <v>7.49</v>
       </c>
       <c r="AD6">
-        <v>1.04</v>
+        <v>2.29</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.0254</v>
+        <v>0.0176</v>
       </c>
       <c r="AF6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AH6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AI6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK6">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AL6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -1902,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="AO6" s="2">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AP6" s="2">
-        <v>0.54</v>
+        <v>0.525</v>
       </c>
       <c r="AQ6" s="2">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
       <c r="AR6" s="2">
         <v>0</v>
@@ -1917,34 +1929,34 @@
         <v>0</v>
       </c>
       <c r="AT6" s="2">
-        <v>0.68</v>
+        <v>0.675</v>
       </c>
       <c r="AU6" s="2">
         <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="AW6" s="2">
-        <v>-0.3369163118587283</v>
+        <v>-0.01628310336793606</v>
       </c>
       <c r="AX6" s="1">
-        <v>131.9459</v>
+        <v>493.42715</v>
       </c>
       <c r="AY6" s="2">
-        <v>-0.07904027360926931</v>
+        <v>0.2773490124000103</v>
       </c>
       <c r="AZ6" s="1">
-        <v>200</v>
+        <v>605</v>
       </c>
       <c r="BA6" s="2">
-        <v>0.3959656592447825</v>
+        <v>0.5661808485852597</v>
       </c>
       <c r="BB6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -1952,112 +1964,112 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1">
-        <v>119.715</v>
+        <v>133.87</v>
       </c>
       <c r="H7">
-        <v>34.01</v>
+        <v>232.91</v>
       </c>
       <c r="I7">
-        <v>284.06</v>
+        <v>1739.84</v>
       </c>
       <c r="J7">
-        <v>282.98</v>
+        <v>1729.78</v>
       </c>
       <c r="K7" s="1">
-        <v>111.1744</v>
+        <v>132.4938</v>
       </c>
       <c r="L7" s="2">
-        <v>0.07682164239249321</v>
+        <v>0.01038690112292056</v>
       </c>
       <c r="M7" s="1">
-        <v>128.77965</v>
+        <v>123.79645</v>
       </c>
       <c r="N7" s="2">
-        <v>-0.07038883860920572</v>
+        <v>0.08137188101920541</v>
       </c>
       <c r="O7">
-        <v>134.13</v>
+        <v>113.56</v>
       </c>
       <c r="P7" s="2">
-        <v>-0.1074703645716841</v>
+        <v>0.1788481859809792</v>
       </c>
       <c r="Q7">
-        <v>1.693773121009215</v>
+        <v>0.7333261461066911</v>
       </c>
       <c r="R7">
-        <v>1.659001895894468</v>
+        <v>0.6695109323862583</v>
       </c>
       <c r="S7">
-        <v>61.27784598757121</v>
+        <v>50.13846488932792</v>
       </c>
       <c r="T7">
-        <v>60.85</v>
+        <v>52.1</v>
       </c>
       <c r="U7">
-        <v>63.95</v>
+        <v>57.27</v>
       </c>
       <c r="V7">
-        <v>2.544116219848648</v>
+        <v>0.3523247692708563</v>
       </c>
       <c r="W7">
-        <v>70.862119801451</v>
+        <v>63.34821802849898</v>
       </c>
       <c r="X7">
-        <v>2.799410846232624</v>
+        <v>2.591490173400067</v>
       </c>
       <c r="Y7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z7" s="1">
-        <v>119.2333320617676</v>
+        <v>92.54899927775064</v>
       </c>
       <c r="AA7" s="1">
-        <v>124.7213374458351</v>
+        <v>157.0241306935238</v>
       </c>
       <c r="AB7" s="1">
-        <v>113.7453266777</v>
+        <v>28.07386786197748</v>
       </c>
       <c r="AC7">
-        <v>4.11</v>
+        <v>20.8</v>
       </c>
       <c r="AD7">
-        <v>1.73</v>
+        <v>3.54</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.0164</v>
+        <v>0.012</v>
       </c>
       <c r="AF7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AG7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AH7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AI7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AL7">
         <v>9</v>
@@ -2066,52 +2078,52 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="2">
-        <v>0.1578947368421053</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="AP7" s="2">
-        <v>0.3684210526315789</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="AQ7" s="2">
-        <v>0.4736842105263158</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="AR7" s="2">
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="AT7" s="2">
-        <v>0.5263157894736842</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="AU7" s="2">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="AV7" s="1">
-        <v>113.2</v>
+        <v>120.12</v>
       </c>
       <c r="AW7" s="2">
-        <v>-0.05442091634298125</v>
+        <v>-0.1027115858668858</v>
       </c>
       <c r="AX7" s="1">
-        <v>136.5125</v>
+        <v>141.12462</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.1403124086371798</v>
+        <v>0.05419152909539096</v>
       </c>
       <c r="AZ7" s="1">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="BA7" s="2">
-        <v>0.378273399323393</v>
+        <v>0.1877194292970792</v>
       </c>
       <c r="BB7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -2119,166 +2131,166 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G8" s="1">
-        <v>134.54</v>
+        <v>142.87</v>
       </c>
       <c r="H8">
-        <v>234.08</v>
+        <v>231.65</v>
       </c>
       <c r="I8">
-        <v>1739.84</v>
+        <v>1621.4</v>
       </c>
       <c r="J8">
-        <v>1729.78</v>
+        <v>1610.1</v>
       </c>
       <c r="K8" s="1">
-        <v>132.4938</v>
+        <v>109.8868</v>
       </c>
       <c r="L8" s="2">
-        <v>0.01544374151847105</v>
+        <v>0.3001561607035605</v>
       </c>
       <c r="M8" s="1">
-        <v>123.79645</v>
+        <v>124.0299</v>
       </c>
       <c r="N8" s="2">
-        <v>0.08678399097873969</v>
+        <v>0.1518996629038644</v>
       </c>
       <c r="O8">
-        <v>113.56</v>
+        <v>117.15</v>
       </c>
       <c r="P8" s="2">
-        <v>0.1847481507573088</v>
+        <v>0.2195475885616731</v>
       </c>
       <c r="Q8">
-        <v>0.7851787282937721</v>
+        <v>7.684592974882335</v>
       </c>
       <c r="R8">
-        <v>0.6798814488236745</v>
+        <v>5.815952505353909</v>
       </c>
       <c r="S8">
-        <v>51.9709453858889</v>
+        <v>77.26540958547534</v>
       </c>
       <c r="T8">
-        <v>52.98</v>
+        <v>84.81</v>
       </c>
       <c r="U8">
-        <v>57.45</v>
+        <v>81.3</v>
       </c>
       <c r="V8">
-        <v>0.8395880264025104</v>
+        <v>17.37861707591696</v>
       </c>
       <c r="W8">
-        <v>63.57494371638954</v>
+        <v>80.50999855267108</v>
       </c>
       <c r="X8">
-        <v>2.535774884965357</v>
+        <v>5.130590505518128</v>
       </c>
       <c r="Y8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z8" s="1">
-        <v>92.54899927775064</v>
+        <v>135.4536605834961</v>
       </c>
       <c r="AA8" s="1">
-        <v>157.0241306935238</v>
+        <v>146.8741631772848</v>
       </c>
       <c r="AB8" s="1">
-        <v>28.07386786197748</v>
+        <v>124.0331579897074</v>
       </c>
       <c r="AC8">
-        <v>20.8</v>
+        <v>41.01</v>
       </c>
       <c r="AD8">
-        <v>3.54</v>
+        <v>1.04</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.012</v>
+        <v>0.0254</v>
       </c>
       <c r="AF8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AG8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AI8">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AJ8">
         <v>7</v>
       </c>
       <c r="AK8">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AL8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AM8">
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="2">
-        <v>0.2413793103448276</v>
+        <v>0.14</v>
       </c>
       <c r="AP8" s="2">
-        <v>0.4137931034482759</v>
+        <v>0.54</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0.3103448275862069</v>
+        <v>0.32</v>
       </c>
       <c r="AR8" s="2">
         <v>0</v>
       </c>
       <c r="AS8" s="2">
-        <v>0.03448275862068965</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="2">
-        <v>0.6551724137931034</v>
+        <v>0.68</v>
       </c>
       <c r="AU8" s="2">
-        <v>0.03448275862068965</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>120.12</v>
+        <v>95</v>
       </c>
       <c r="AW8" s="2">
-        <v>-0.1071800208116544</v>
+        <v>-0.3350598446139847</v>
       </c>
       <c r="AX8" s="1">
-        <v>141.12462</v>
+        <v>131.9459</v>
       </c>
       <c r="AY8" s="2">
-        <v>0.04894172736732572</v>
+        <v>-0.0764618184363408</v>
       </c>
       <c r="AZ8" s="1">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="BA8" s="2">
-        <v>0.181804667756801</v>
+        <v>0.3998740113389794</v>
       </c>
       <c r="BB8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:55">
@@ -2286,166 +2298,166 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G9" s="1">
-        <v>149.4522</v>
+        <v>103.25</v>
       </c>
       <c r="H9">
-        <v>80.43000000000001</v>
+        <v>55.82</v>
       </c>
       <c r="I9">
-        <v>538.1799999999999</v>
+        <v>540.64</v>
       </c>
       <c r="J9">
-        <v>537.35</v>
+        <v>535.87</v>
       </c>
       <c r="K9" s="1">
-        <v>143.6144</v>
+        <v>104.8996</v>
       </c>
       <c r="L9" s="2">
-        <v>0.04064912710703116</v>
+        <v>-0.0157255127760259</v>
       </c>
       <c r="M9" s="1">
-        <v>139.45575</v>
+        <v>106.99585</v>
       </c>
       <c r="N9" s="2">
-        <v>0.07168187758482537</v>
+        <v>-0.03500930176263849</v>
       </c>
       <c r="O9">
-        <v>113.16</v>
+        <v>78.39</v>
       </c>
       <c r="P9" s="2">
-        <v>0.3207158006362673</v>
+        <v>0.317132287281541</v>
       </c>
       <c r="Q9">
-        <v>0.5225307734967544</v>
+        <v>-0.339168112093418</v>
       </c>
       <c r="R9">
-        <v>0.1766001403333901</v>
+        <v>-0.5627953538365301</v>
       </c>
       <c r="S9">
-        <v>56.69174145219814</v>
+        <v>48.87717782756323</v>
       </c>
       <c r="T9">
-        <v>44.72</v>
+        <v>60.51</v>
       </c>
       <c r="U9">
-        <v>31.42</v>
+        <v>51.04</v>
       </c>
       <c r="V9">
-        <v>3.640019521263546</v>
+        <v>0.721878693150462</v>
       </c>
       <c r="W9">
-        <v>60.01496839038091</v>
+        <v>45.77765030234523</v>
       </c>
       <c r="X9">
-        <v>3.035259393499076</v>
+        <v>1.810169937720927</v>
       </c>
       <c r="Y9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Z9" s="1">
-        <v>129.0813837687174</v>
+        <v>103.9059992472331</v>
       </c>
       <c r="AA9" s="1">
-        <v>220.591533321873</v>
+        <v>105.2148130802908</v>
       </c>
       <c r="AB9" s="1">
-        <v>37.57123421556193</v>
+        <v>102.5971854141753</v>
       </c>
       <c r="AC9">
-        <v>10.31</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AD9">
-        <v>3.4</v>
+        <v>4.67</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.019199999</v>
+        <v>0.0177</v>
       </c>
       <c r="AF9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AG9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AI9">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ9">
         <v>2</v>
       </c>
       <c r="AK9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM9">
         <v>1</v>
       </c>
       <c r="AN9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.1052631578947368</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.4736842105263158</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.2631578947368421</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AR9" s="2">
-        <v>0.05263157894736842</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AS9" s="2">
-        <v>0.1052631578947368</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.5789473684210527</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AV9" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AW9" s="2">
-        <v>-0.3308897426735772</v>
+        <v>-0.08958837772397095</v>
       </c>
       <c r="AX9" s="1">
-        <v>151.88222</v>
+        <v>105.61538</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.01625951307508344</v>
+        <v>0.02290924939467314</v>
       </c>
       <c r="AZ9" s="1">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.2311628734806178</v>
+        <v>0.162227602905569</v>
       </c>
       <c r="BB9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:55">
@@ -2453,166 +2465,166 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G10" s="1">
-        <v>387.325</v>
+        <v>187.92</v>
       </c>
       <c r="H10">
-        <v>165.08</v>
+        <v>331.94</v>
       </c>
       <c r="I10">
-        <v>426.2</v>
+        <v>1766.4</v>
       </c>
       <c r="J10">
-        <v>426.8</v>
+        <v>1762.78</v>
       </c>
       <c r="K10" s="1">
-        <v>389.9786</v>
+        <v>185.5304</v>
       </c>
       <c r="L10" s="2">
-        <v>-0.006804475937910396</v>
+        <v>0.01287982993622609</v>
       </c>
       <c r="M10" s="1">
-        <v>446.36945</v>
+        <v>188.51445</v>
       </c>
       <c r="N10" s="2">
-        <v>-0.1322770857190159</v>
+        <v>-0.00315333917373455</v>
       </c>
       <c r="O10">
-        <v>469.02</v>
+        <v>158.47</v>
       </c>
       <c r="P10" s="2">
-        <v>-0.1741823376401859</v>
+        <v>0.1858395910897961</v>
       </c>
       <c r="Q10">
-        <v>-4.665924118344606</v>
+        <v>-0.1832963150810372</v>
       </c>
       <c r="R10">
-        <v>-1.582223118160415</v>
+        <v>0.09879536693020972</v>
       </c>
       <c r="S10">
-        <v>43.41682665395817</v>
+        <v>52.1078069615742</v>
       </c>
       <c r="T10">
-        <v>18.31</v>
+        <v>41.93</v>
       </c>
       <c r="U10">
-        <v>27.53</v>
+        <v>53.77</v>
       </c>
       <c r="V10">
-        <v>-6.946381556374454</v>
+        <v>-0.613239395036941</v>
       </c>
       <c r="W10">
-        <v>42.00218262501533</v>
+        <v>73.66816415971944</v>
       </c>
       <c r="X10">
-        <v>9.07118255452659</v>
+        <v>3.884557093476379</v>
       </c>
       <c r="Y10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Z10" s="1">
-        <v>455.4113291422527</v>
+        <v>182.9240005493164</v>
       </c>
       <c r="AA10" s="1">
-        <v>767.3477923514587</v>
+        <v>200.115050420741</v>
       </c>
       <c r="AB10" s="1">
-        <v>143.4748659330467</v>
+        <v>165.7329506778918</v>
       </c>
       <c r="AC10">
-        <v>7.49</v>
+        <v>14.7</v>
       </c>
       <c r="AD10">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.0176</v>
+        <v>0.0083</v>
       </c>
       <c r="AF10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AG10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AH10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI10">
+        <v>28</v>
+      </c>
+      <c r="AJ10">
+        <v>4</v>
+      </c>
+      <c r="AK10">
+        <v>12</v>
+      </c>
+      <c r="AL10">
+        <v>12</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1">
         <v>170</v>
       </c>
-      <c r="AI10">
-        <v>40</v>
-      </c>
-      <c r="AJ10">
-        <v>6</v>
-      </c>
-      <c r="AK10">
-        <v>21</v>
-      </c>
-      <c r="AL10">
-        <v>13</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>0.525</v>
-      </c>
-      <c r="AQ10" s="2">
-        <v>0.325</v>
-      </c>
-      <c r="AR10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>0.675</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>380</v>
-      </c>
       <c r="AW10" s="2">
-        <v>-0.01891176660427287</v>
+        <v>-0.09535972754363553</v>
       </c>
       <c r="AX10" s="1">
-        <v>493.42715</v>
+        <v>208.86444</v>
       </c>
       <c r="AY10" s="2">
-        <v>0.2739357129026012</v>
+        <v>0.1114540229885058</v>
       </c>
       <c r="AZ10" s="1">
-        <v>605</v>
+        <v>250</v>
       </c>
       <c r="BA10" s="2">
-        <v>0.5619957400116182</v>
+        <v>0.3303533418475948</v>
       </c>
       <c r="BB10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:55">
@@ -2620,115 +2632,115 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1">
-        <v>294.8015</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="H11">
-        <v>183.62</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I11">
-        <v>622.85</v>
+        <v>116.24</v>
       </c>
       <c r="J11">
-        <v>621.76</v>
+        <v>114.1</v>
       </c>
       <c r="K11" s="1">
-        <v>306.807</v>
+        <v>65.8546</v>
       </c>
       <c r="L11" s="2">
-        <v>-0.03913046312502661</v>
+        <v>-0.01738071448311904</v>
       </c>
       <c r="M11" s="1">
-        <v>340.3652</v>
+        <v>70.86494999999999</v>
       </c>
       <c r="N11" s="2">
-        <v>-0.1338670933456183</v>
+        <v>-0.0868546439389289</v>
       </c>
       <c r="O11">
-        <v>319.19</v>
+        <v>70.53</v>
       </c>
       <c r="P11" s="2">
-        <v>-0.07640746890566753</v>
+        <v>-0.08251807741386655</v>
       </c>
       <c r="Q11">
-        <v>-4.473828941986824</v>
+        <v>-0.5123572502696447</v>
       </c>
       <c r="R11">
-        <v>-1.864480488313093</v>
+        <v>-0.6628521034878926</v>
       </c>
       <c r="S11">
-        <v>39.22419622954915</v>
+        <v>48.74140720640853</v>
       </c>
       <c r="T11">
-        <v>35.24</v>
+        <v>33.54</v>
       </c>
       <c r="U11">
-        <v>40.75</v>
+        <v>25.8</v>
       </c>
       <c r="V11">
-        <v>-6.867852773839894</v>
+        <v>-0.1851037223394738</v>
       </c>
       <c r="W11">
-        <v>36.20576329969116</v>
+        <v>51.885239577967</v>
       </c>
       <c r="X11">
-        <v>7.423530403400205</v>
+        <v>1.262268035721882</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Z11" s="1">
-        <v>286.6793314615886</v>
+        <v>64.43033472696941</v>
       </c>
       <c r="AA11" s="1">
-        <v>307.3320577028446</v>
+        <v>67.61935346273739</v>
       </c>
       <c r="AB11" s="1">
-        <v>266.0266052203325</v>
+        <v>61.24131599120142</v>
       </c>
       <c r="AC11">
-        <v>8.65</v>
+        <v>3.97</v>
       </c>
       <c r="AD11">
-        <v>3.03</v>
+        <v>1.95</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.0139</v>
+        <v>0.0344</v>
       </c>
       <c r="AF11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AI11">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
         <v>4</v>
       </c>
-      <c r="AK11">
-        <v>13</v>
-      </c>
       <c r="AL11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2737,49 +2749,49 @@
         <v>1</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.16</v>
+        <v>0.0625</v>
       </c>
       <c r="AP11" s="2">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0.28</v>
+        <v>0.625</v>
       </c>
       <c r="AR11" s="2">
         <v>0</v>
       </c>
       <c r="AS11" s="2">
-        <v>0.04</v>
+        <v>0.0625</v>
       </c>
       <c r="AT11" s="2">
-        <v>0.68</v>
+        <v>0.3125</v>
       </c>
       <c r="AU11" s="2">
-        <v>0.04</v>
+        <v>0.0625</v>
       </c>
       <c r="AV11" s="1">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="AW11" s="2">
-        <v>-0.1078742815080655</v>
+        <v>-0.08823983928295463</v>
       </c>
       <c r="AX11" s="1">
-        <v>340.79782</v>
+        <v>74.85538</v>
       </c>
       <c r="AY11" s="2">
-        <v>0.156024714935304</v>
+        <v>0.1567822593107712</v>
       </c>
       <c r="AZ11" s="1">
-        <v>395</v>
+        <v>84</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.3398846342369358</v>
+        <v>0.2980992118683358</v>
       </c>
       <c r="BB11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:55">
@@ -2787,115 +2799,115 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G12" s="1">
-        <v>35.38</v>
+        <v>128.74</v>
       </c>
       <c r="H12">
-        <v>16.33</v>
+        <v>13.2</v>
       </c>
       <c r="I12">
-        <v>461.43</v>
+        <v>102.56</v>
       </c>
       <c r="J12">
-        <v>452.66</v>
+        <v>101</v>
       </c>
       <c r="K12" s="1">
-        <v>24.8791</v>
+        <v>113.4444</v>
       </c>
       <c r="L12" s="2">
-        <v>0.4220771651707659</v>
+        <v>0.134829044007461</v>
       </c>
       <c r="M12" s="1">
-        <v>20.495226</v>
+        <v>126.12488</v>
       </c>
       <c r="N12" s="2">
-        <v>0.726255665587684</v>
+        <v>0.02073437056986698</v>
       </c>
       <c r="O12">
-        <v>9.449999999999999</v>
+        <v>55.93</v>
       </c>
       <c r="P12" s="2">
-        <v>2.743915343915345</v>
+        <v>1.301805828714464</v>
       </c>
       <c r="Q12">
-        <v>2.155955649864719</v>
+        <v>3.950212428008214</v>
       </c>
       <c r="R12">
-        <v>1.518997406835185</v>
+        <v>4.004035132933814</v>
       </c>
       <c r="S12">
-        <v>72.37689878511732</v>
+        <v>57.0703199794391</v>
       </c>
       <c r="T12">
-        <v>58.88</v>
+        <v>75.06999999999999</v>
       </c>
       <c r="U12">
-        <v>48.71</v>
+        <v>73.67</v>
       </c>
       <c r="V12">
-        <v>19.36572805892652</v>
+        <v>3.214945905802028</v>
       </c>
       <c r="W12">
-        <v>73.72714458703766</v>
+        <v>59.05820188022069</v>
       </c>
       <c r="X12">
-        <v>2.246649438501048</v>
+        <v>6.044794110639486</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z12" s="1">
-        <v>31.18799978892008</v>
+        <v>88.02729873657226</v>
       </c>
       <c r="AA12" s="1">
-        <v>34.86159265661593</v>
+        <v>146.0312932631615</v>
       </c>
       <c r="AB12" s="1">
-        <v>27.51440692122424</v>
+        <v>30.02330420998302</v>
       </c>
       <c r="AC12">
-        <v>57.35</v>
+        <v>6.27</v>
       </c>
       <c r="AD12">
-        <v>2.59</v>
+        <v>5.75</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.16299999</v>
+        <v>0.0784</v>
       </c>
       <c r="AF12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AI12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -2904,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="AO12" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AP12" s="2">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AQ12" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AR12" s="2">
         <v>0</v>
@@ -2919,34 +2931,34 @@
         <v>0</v>
       </c>
       <c r="AT12" s="2">
-        <v>0.7142857142857143</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="AU12" s="2">
         <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <v>16</v>
+        <v>122.73</v>
       </c>
       <c r="AW12" s="2">
-        <v>-0.5477671000565292</v>
+        <v>-0.04668323753301231</v>
       </c>
       <c r="AX12" s="1">
-        <v>28.2925</v>
+        <v>166.74846</v>
       </c>
       <c r="AY12" s="2">
-        <v>-0.2003250423968344</v>
+        <v>0.2952342706229609</v>
       </c>
       <c r="AZ12" s="1">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="BA12" s="2">
-        <v>-0.01074053137365751</v>
+        <v>1.330278079850862</v>
       </c>
       <c r="BB12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:55">
@@ -2954,116 +2966,116 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1">
-        <v>129.975</v>
+        <v>35.03</v>
       </c>
       <c r="H13">
-        <v>13.33</v>
+        <v>16.16</v>
       </c>
       <c r="I13">
-        <v>102.56</v>
+        <v>461.43</v>
       </c>
       <c r="J13">
-        <v>101</v>
+        <v>452.66</v>
       </c>
       <c r="K13" s="1">
-        <v>113.4444</v>
+        <v>24.8791</v>
       </c>
       <c r="L13" s="2">
-        <v>0.1457154341686323</v>
+        <v>0.4080091321631409</v>
       </c>
       <c r="M13" s="1">
-        <v>126.12488</v>
+        <v>20.495226</v>
       </c>
       <c r="N13" s="2">
-        <v>0.03052625302795126</v>
+        <v>0.709178517963159</v>
       </c>
       <c r="O13">
-        <v>55.93</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="P13" s="2">
-        <v>1.323887001609154</v>
+        <v>2.706878306878307</v>
       </c>
       <c r="Q13">
-        <v>4.048730995215749</v>
+        <v>2.128035239360688</v>
       </c>
       <c r="R13">
-        <v>4.023738846375322</v>
+        <v>1.513413324734379</v>
       </c>
       <c r="S13">
-        <v>58.18735499194152</v>
+        <v>71.8087279270342</v>
       </c>
       <c r="T13">
-        <v>75.72</v>
+        <v>58.55</v>
       </c>
       <c r="U13">
-        <v>73.8</v>
+        <v>48.65</v>
       </c>
       <c r="V13">
-        <v>4.205085068083154</v>
+        <v>18.18488360539865</v>
       </c>
       <c r="W13">
-        <v>62.03235449356696</v>
+        <v>73.81871349901843</v>
       </c>
       <c r="X13">
-        <v>6.044794110639486</v>
+        <v>2.246649438501048</v>
       </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Z13" s="1">
-        <v>88.02729873657226</v>
+        <v>31.18799978892008</v>
       </c>
       <c r="AA13" s="1">
-        <v>146.0312932631615</v>
+        <v>34.86159265661593</v>
       </c>
       <c r="AB13" s="1">
-        <v>30.02330420998302</v>
+        <v>27.51440692122424</v>
       </c>
       <c r="AC13">
-        <v>6.27</v>
+        <v>57.35</v>
       </c>
       <c r="AD13">
-        <v>5.75</v>
+        <v>2.59</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.0784</v>
+        <v>0.16299999</v>
       </c>
       <c r="AF13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH13" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AI13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ13">
+        <v>3</v>
+      </c>
+      <c r="AK13">
+        <v>7</v>
+      </c>
+      <c r="AL13">
         <v>4</v>
       </c>
-      <c r="AK13">
-        <v>8</v>
-      </c>
-      <c r="AL13">
-        <v>1</v>
-      </c>
       <c r="AM13">
         <v>0</v>
       </c>
@@ -3071,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="AO13" s="2">
-        <v>0.3076923076923077</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP13" s="2">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR13" s="2">
         <v>0</v>
@@ -3086,34 +3098,34 @@
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>0.9230769230769231</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU13" s="2">
         <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <v>122.73</v>
+        <v>16</v>
       </c>
       <c r="AW13" s="2">
-        <v>-0.05574148874783605</v>
+        <v>-0.543248644019412</v>
       </c>
       <c r="AX13" s="1">
-        <v>166.74846</v>
+        <v>28.2925</v>
       </c>
       <c r="AY13" s="2">
-        <v>0.2829271783035199</v>
+        <v>-0.1923351413074508</v>
       </c>
       <c r="AZ13" s="1">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="BA13" s="2">
-        <v>1.308136180034622</v>
+        <v>-0.0008564087924636351</v>
       </c>
       <c r="BB13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:55">
@@ -3121,109 +3133,106 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G14" s="1">
-        <v>94.39</v>
+        <v>149.635</v>
       </c>
       <c r="H14">
-        <v>16.03</v>
+        <v>9.57</v>
       </c>
       <c r="I14">
-        <v>169.8</v>
+        <v>63.99</v>
       </c>
       <c r="J14">
-        <v>149.59</v>
+        <v>62.93</v>
       </c>
       <c r="K14" s="1">
-        <v>59.7586</v>
+        <v>127.912</v>
       </c>
       <c r="L14" s="2">
-        <v>0.5795216086052886</v>
+        <v>0.1698276940396521</v>
       </c>
       <c r="M14" s="1">
-        <v>53.6201</v>
+        <v>106.9796</v>
       </c>
       <c r="N14" s="2">
-        <v>0.7603473324369033</v>
+        <v>0.3987246166558857</v>
+      </c>
+      <c r="O14">
+        <v>65.19</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.29536738763614</v>
       </c>
       <c r="Q14">
-        <v>8.611954243753203</v>
+        <v>6.645911646071255</v>
       </c>
       <c r="R14">
-        <v>7.267371375541009</v>
+        <v>5.912382802991734</v>
       </c>
       <c r="S14">
-        <v>80.97725811265231</v>
+        <v>63.12086777691395</v>
       </c>
       <c r="T14">
-        <v>91.51000000000001</v>
+        <v>86.12</v>
       </c>
       <c r="U14">
-        <v>84.05</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="V14">
-        <v>32.7753611647593</v>
+        <v>13.20547949633295</v>
       </c>
       <c r="W14">
-        <v>66.79583385447481</v>
+        <v>72.40059100343295</v>
       </c>
       <c r="X14">
-        <v>4.744721867211751</v>
+        <v>5.982393317836984</v>
       </c>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Z14" s="1">
-        <v>88.57183176676432</v>
+        <v>154.3953364054362</v>
       </c>
       <c r="AA14" s="1">
-        <v>98.18368463780368</v>
+        <v>163.127049460734</v>
       </c>
       <c r="AB14" s="1">
-        <v>78.95997889572496</v>
+        <v>145.6636233501384</v>
       </c>
       <c r="AC14">
-        <v>7.63</v>
+        <v>3.31</v>
       </c>
       <c r="AD14">
-        <v>1.33</v>
+        <v>3.42</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.053200003</v>
+        <v>0.073699996</v>
       </c>
       <c r="AF14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AH14" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AI14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
         <v>3</v>
       </c>
-      <c r="AK14">
-        <v>9</v>
-      </c>
       <c r="AL14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -3232,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP14" s="2">
-        <v>0.6923076923076923</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AR14" s="2">
         <v>0</v>
@@ -3247,34 +3256,34 @@
         <v>0</v>
       </c>
       <c r="AT14" s="2">
-        <v>0.9230769230769231</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AU14" s="2">
         <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>34.13</v>
+        <v>110</v>
       </c>
       <c r="AW14" s="2">
-        <v>-0.6384150863438923</v>
+        <v>-0.2648778694824072</v>
       </c>
       <c r="AX14" s="1">
-        <v>84.08692000000001</v>
+        <v>143.14285</v>
       </c>
       <c r="AY14" s="2">
-        <v>-0.1091543595719885</v>
+        <v>-0.04338657399672524</v>
       </c>
       <c r="AZ14" s="1">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="BA14" s="2">
-        <v>0.05943426210403644</v>
+        <v>0.1227319811541418</v>
       </c>
       <c r="BB14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:55">
@@ -3285,112 +3294,106 @@
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G15" s="1">
-        <v>292.6</v>
+        <v>94.48</v>
       </c>
       <c r="H15">
-        <v>10.48</v>
+        <v>16.04</v>
       </c>
       <c r="I15">
-        <v>35.83</v>
+        <v>169.8</v>
       </c>
       <c r="J15">
-        <v>35.69</v>
+        <v>149.59</v>
       </c>
       <c r="K15" s="1">
-        <v>225.117</v>
+        <v>59.7586</v>
       </c>
       <c r="L15" s="2">
-        <v>0.2997685647907534</v>
+        <v>0.5810276679841898</v>
       </c>
       <c r="M15" s="1">
-        <v>226.49126</v>
+        <v>53.6201</v>
       </c>
       <c r="N15" s="2">
-        <v>0.2918820796881964</v>
-      </c>
-      <c r="O15">
-        <v>158.45</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.8466393183969709</v>
+        <v>0.7620258074863717</v>
       </c>
       <c r="Q15">
-        <v>15.65257290296142</v>
+        <v>8.619134047411265</v>
       </c>
       <c r="R15">
-        <v>12.12768850915179</v>
+        <v>7.268807336272621</v>
       </c>
       <c r="S15">
-        <v>79.80656628039291</v>
+        <v>81.02674983077074</v>
       </c>
       <c r="T15">
-        <v>91.34999999999999</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="U15">
-        <v>87.61</v>
+        <v>84.06</v>
       </c>
       <c r="V15">
-        <v>25.67109212833793</v>
+        <v>32.90196683633279</v>
       </c>
       <c r="W15">
-        <v>79.21234654535087</v>
+        <v>66.86370187951053</v>
       </c>
       <c r="X15">
-        <v>9.60024439690773</v>
+        <v>4.744721867211751</v>
       </c>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z15" s="1">
-        <v>283.0223378499349</v>
+        <v>88.57183176676432</v>
       </c>
       <c r="AA15" s="1">
-        <v>301.2096199393338</v>
+        <v>98.18368463780368</v>
       </c>
       <c r="AB15" s="1">
-        <v>264.835055760536</v>
+        <v>78.95997889572496</v>
       </c>
       <c r="AC15">
-        <v>2.22</v>
+        <v>7.63</v>
       </c>
       <c r="AD15">
-        <v>3.91</v>
+        <v>1.33</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.0868</v>
+        <v>0.053200003</v>
       </c>
       <c r="AF15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AH15" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AI15">
+        <v>13</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15">
         <v>9</v>
       </c>
-      <c r="AJ15">
-        <v>2</v>
-      </c>
-      <c r="AK15">
-        <v>3</v>
-      </c>
       <c r="AL15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -3399,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AR15" s="2">
         <v>0</v>
@@ -3414,34 +3417,34 @@
         <v>0</v>
       </c>
       <c r="AT15" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="AU15" s="2">
         <v>0</v>
       </c>
       <c r="AV15" s="1">
-        <v>172.04</v>
+        <v>34.13</v>
       </c>
       <c r="AW15" s="2">
-        <v>-0.41203007518797</v>
+        <v>-0.6387595258255715</v>
       </c>
       <c r="AX15" s="1">
-        <v>253.22667</v>
+        <v>84.08692000000001</v>
       </c>
       <c r="AY15" s="2">
-        <v>-0.1345636705399864</v>
+        <v>-0.1100029635901778</v>
       </c>
       <c r="AZ15" s="1">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="BA15" s="2">
-        <v>0.1961722488038277</v>
+        <v>0.05842506350550376</v>
       </c>
       <c r="BB15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:55">
@@ -3449,107 +3452,116 @@
         <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
       </c>
       <c r="G16" s="1">
-        <v>267</v>
+        <v>292.63</v>
       </c>
       <c r="H16">
-        <v>13.29</v>
+        <v>10.49</v>
       </c>
       <c r="I16">
-        <v>49.78</v>
+        <v>35.83</v>
       </c>
       <c r="J16">
-        <v>48.6</v>
+        <v>35.69</v>
       </c>
       <c r="K16" s="1">
-        <v>223.675</v>
+        <v>225.117</v>
       </c>
       <c r="L16" s="2">
-        <v>0.1936962110204537</v>
+        <v>0.2999018288267879</v>
       </c>
       <c r="M16" s="1">
-        <v>188.76746</v>
+        <v>226.49126</v>
       </c>
       <c r="N16" s="2">
-        <v>0.4144386961608744</v>
+        <v>0.2920145351304063</v>
       </c>
       <c r="O16">
-        <v>83.78</v>
+        <v>158.45</v>
       </c>
       <c r="P16" s="2">
-        <v>2.186918118882788</v>
+        <v>0.8468286525717893</v>
       </c>
       <c r="Q16">
-        <v>10.45411383327317</v>
+        <v>15.65496596797652</v>
       </c>
       <c r="R16">
-        <v>10.05278558389392</v>
+        <v>12.12816712215481</v>
       </c>
       <c r="S16">
-        <v>75.61054227488788</v>
+        <v>79.8144319482635</v>
       </c>
       <c r="T16">
-        <v>89.58</v>
+        <v>91.28</v>
       </c>
       <c r="U16">
-        <v>85.38</v>
+        <v>87.59</v>
       </c>
       <c r="V16">
-        <v>5.500236315881531</v>
+        <v>25.68397654145521</v>
       </c>
       <c r="W16">
-        <v>77.52274450489477</v>
+        <v>79.27619732243163</v>
       </c>
       <c r="X16">
-        <v>7.326656992955203</v>
+        <v>9.627745094452374</v>
       </c>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z16" s="1">
-        <v>266.0663365681966</v>
+        <v>283.0223378499349</v>
       </c>
       <c r="AA16" s="1">
-        <v>277.5943174797076</v>
+        <v>301.2096199393338</v>
       </c>
       <c r="AB16" s="1">
-        <v>254.5383556566856</v>
+        <v>264.835055760536</v>
       </c>
       <c r="AC16">
-        <v>4.75</v>
+        <v>2.22</v>
       </c>
       <c r="AD16">
-        <v>5.79</v>
+        <v>3.91</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.1338</v>
+        <v>0.0868</v>
       </c>
       <c r="AF16" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="AG16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AH16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AI16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK16">
+        <v>3</v>
+      </c>
+      <c r="AL16">
         <v>4</v>
       </c>
-      <c r="AL16">
-        <v>2</v>
-      </c>
       <c r="AM16">
         <v>0</v>
       </c>
@@ -3557,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="AO16" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AP16" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ16" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AR16" s="2">
         <v>0</v>
@@ -3572,34 +3584,34 @@
         <v>0</v>
       </c>
       <c r="AT16" s="2">
-        <v>0.7142857142857142</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AU16" s="2">
         <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>275</v>
+        <v>172.04</v>
       </c>
       <c r="AW16" s="2">
-        <v>0.0299625468164794</v>
+        <v>-0.4120903530055018</v>
       </c>
       <c r="AX16" s="1">
-        <v>297</v>
+        <v>253.22667</v>
       </c>
       <c r="AY16" s="2">
-        <v>0.1123595505617977</v>
+        <v>-0.1346523938078802</v>
       </c>
       <c r="AZ16" s="1">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="BA16" s="2">
-        <v>0.1423220973782771</v>
+        <v>0.1960496189727643</v>
       </c>
       <c r="BB16" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC16" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:55">
@@ -3607,115 +3619,115 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G17" s="1">
-        <v>104.125</v>
+        <v>104.96</v>
       </c>
       <c r="H17">
-        <v>19.78</v>
+        <v>9.08</v>
       </c>
       <c r="I17">
-        <v>189.95</v>
+        <v>86.48</v>
       </c>
       <c r="J17">
-        <v>165.85</v>
+        <v>84.95</v>
       </c>
       <c r="K17" s="1">
-        <v>76.33620000000001</v>
+        <v>96.4539</v>
       </c>
       <c r="L17" s="2">
-        <v>0.3640317437860411</v>
+        <v>0.08818824329550168</v>
       </c>
       <c r="M17" s="1">
-        <v>74.38724999999999</v>
+        <v>95.0305</v>
       </c>
       <c r="N17" s="2">
-        <v>0.3997694497376904</v>
+        <v>0.1044875066426041</v>
       </c>
       <c r="O17">
-        <v>37.79</v>
+        <v>72.34</v>
       </c>
       <c r="P17" s="2">
-        <v>1.755358560465732</v>
+        <v>0.450926181918717</v>
       </c>
       <c r="Q17">
-        <v>9.199084229523152</v>
+        <v>1.340103744398846</v>
       </c>
       <c r="R17">
-        <v>7.921526333690935</v>
+        <v>1.984554595374714</v>
       </c>
       <c r="S17">
-        <v>76.00629890348218</v>
+        <v>56.84572630514685</v>
       </c>
       <c r="T17">
-        <v>96.63</v>
+        <v>26.38</v>
       </c>
       <c r="U17">
-        <v>95.65000000000001</v>
+        <v>29.23</v>
       </c>
       <c r="V17">
-        <v>47.15619933099234</v>
+        <v>-5.577549814124455</v>
       </c>
       <c r="W17">
-        <v>87.76947959220193</v>
+        <v>34.57094662522104</v>
       </c>
       <c r="X17">
-        <v>3.643560694121962</v>
+        <v>3.30939773499023</v>
       </c>
       <c r="Y17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z17" s="1">
-        <v>97.5116673787435</v>
+        <v>103.7653322855631</v>
       </c>
       <c r="AA17" s="1">
-        <v>115.6051142516075</v>
+        <v>110.8947122906027</v>
       </c>
       <c r="AB17" s="1">
-        <v>79.41822050587953</v>
+        <v>96.63595228052358</v>
       </c>
       <c r="AC17">
-        <v>11.65</v>
+        <v>5.26</v>
       </c>
       <c r="AD17">
-        <v>3.2</v>
+        <v>4.41</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.0688</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="AF17" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AI17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AJ17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3724,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="AO17" s="2">
-        <v>0.2631578947368421</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AP17" s="2">
-        <v>0.7368421052631579</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AQ17" s="2">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="AR17" s="2">
         <v>0</v>
@@ -3739,34 +3751,34 @@
         <v>0</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AU17" s="2">
         <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="AW17" s="2">
-        <v>-0.1356542617046819</v>
+        <v>-0.009146341463414575</v>
       </c>
       <c r="AX17" s="1">
-        <v>110.06167</v>
+        <v>121.71429</v>
       </c>
       <c r="AY17" s="2">
-        <v>0.05701483793517413</v>
+        <v>0.1596254763719513</v>
       </c>
       <c r="AZ17" s="1">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BA17" s="2">
-        <v>0.2004801920768307</v>
+        <v>0.2385670731707318</v>
       </c>
       <c r="BB17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:55">
@@ -3774,106 +3786,115 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
       </c>
       <c r="G18" s="1">
-        <v>149.115</v>
+        <v>89.9791</v>
       </c>
       <c r="H18">
-        <v>9.539999999999999</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="I18">
-        <v>63.99</v>
+        <v>101.49</v>
       </c>
       <c r="J18">
-        <v>62.93</v>
+        <v>100.12</v>
       </c>
       <c r="K18" s="1">
-        <v>127.912</v>
+        <v>88.098</v>
       </c>
       <c r="L18" s="2">
-        <v>0.1657623991494152</v>
+        <v>0.02135235760176172</v>
       </c>
       <c r="M18" s="1">
-        <v>106.9796</v>
+        <v>96.53605</v>
       </c>
       <c r="N18" s="2">
-        <v>0.3938638768512875</v>
+        <v>-0.06792229431388586</v>
       </c>
       <c r="O18">
-        <v>65.19</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="P18" s="2">
-        <v>1.28739070409572</v>
+        <v>0.09264238008500314</v>
       </c>
       <c r="Q18">
-        <v>6.601638726065943</v>
+        <v>-0.07043923336840408</v>
       </c>
       <c r="R18">
-        <v>5.903528218990672</v>
+        <v>-0.3345380030885752</v>
       </c>
       <c r="S18">
-        <v>62.33625692229503</v>
+        <v>55.66683703954423</v>
       </c>
       <c r="T18">
-        <v>85.93000000000001</v>
+        <v>35.33</v>
       </c>
       <c r="U18">
-        <v>87.03</v>
+        <v>32.97</v>
       </c>
       <c r="V18">
-        <v>12.78560303504234</v>
+        <v>-0.5755766979238605</v>
       </c>
       <c r="W18">
-        <v>72.6294099152191</v>
+        <v>62.2461267195481</v>
       </c>
       <c r="X18">
-        <v>5.982393317836984</v>
+        <v>2.120230439753999</v>
       </c>
       <c r="Y18" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="Z18" s="1">
-        <v>154.3953364054362</v>
+        <v>89.71533279418945</v>
       </c>
       <c r="AA18" s="1">
-        <v>163.127049460734</v>
+        <v>94.39354755892539</v>
       </c>
       <c r="AB18" s="1">
-        <v>145.6636233501384</v>
+        <v>85.03711802945351</v>
       </c>
       <c r="AC18">
-        <v>3.31</v>
+        <v>5.04</v>
       </c>
       <c r="AD18">
-        <v>3.42</v>
+        <v>6.87</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.073699996</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="AF18" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AH18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AI18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AL18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -3882,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="AO18" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="AP18" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="AQ18" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR18" s="2">
         <v>0</v>
@@ -3897,34 +3918,34 @@
         <v>0</v>
       </c>
       <c r="AT18" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AU18" s="2">
         <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AW18" s="2">
-        <v>-0.2623143211615197</v>
+        <v>0.07802811986339046</v>
       </c>
       <c r="AX18" s="1">
-        <v>143.14285</v>
+        <v>112.25</v>
       </c>
       <c r="AY18" s="2">
-        <v>-0.04005063206250209</v>
+        <v>0.2475119222130472</v>
       </c>
       <c r="AZ18" s="1">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="BA18" s="2">
-        <v>0.126647218589679</v>
+        <v>0.3336430348825449</v>
       </c>
       <c r="BB18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:55">
@@ -3932,166 +3953,166 @@
         <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="1">
-        <v>105.105</v>
+        <v>103.965</v>
       </c>
       <c r="H19">
-        <v>9.09</v>
+        <v>19.75</v>
       </c>
       <c r="I19">
-        <v>86.48</v>
+        <v>189.95</v>
       </c>
       <c r="J19">
-        <v>84.95</v>
+        <v>165.85</v>
       </c>
       <c r="K19" s="1">
-        <v>96.4539</v>
+        <v>76.33620000000001</v>
       </c>
       <c r="L19" s="2">
-        <v>0.08969155213008494</v>
+        <v>0.3619357526311239</v>
       </c>
       <c r="M19" s="1">
-        <v>95.0305</v>
+        <v>74.38724999999999</v>
       </c>
       <c r="N19" s="2">
-        <v>0.1060133325616513</v>
+        <v>0.3976185435003984</v>
       </c>
       <c r="O19">
-        <v>72.34999999999999</v>
+        <v>37.79</v>
       </c>
       <c r="P19" s="2">
-        <v>0.4527297857636491</v>
+        <v>1.751124636147129</v>
       </c>
       <c r="Q19">
-        <v>1.344889874429114</v>
+        <v>9.191107143268482</v>
       </c>
       <c r="R19">
-        <v>1.985511821380768</v>
+        <v>7.91993091644</v>
       </c>
       <c r="S19">
-        <v>56.96055814144767</v>
+        <v>75.76811796953677</v>
       </c>
       <c r="T19">
-        <v>26.42</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="U19">
-        <v>29.24</v>
+        <v>95.64</v>
       </c>
       <c r="V19">
-        <v>-5.523575761752054</v>
+        <v>47.01471875135266</v>
       </c>
       <c r="W19">
-        <v>34.49575838277744</v>
+        <v>87.58023024458768</v>
       </c>
       <c r="X19">
-        <v>3.30939773499023</v>
+        <v>3.643560694121962</v>
       </c>
       <c r="Y19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Z19" s="1">
-        <v>103.7653322855631</v>
+        <v>97.5116673787435</v>
       </c>
       <c r="AA19" s="1">
-        <v>110.8947122906027</v>
+        <v>115.6051142516075</v>
       </c>
       <c r="AB19" s="1">
-        <v>96.63595228052358</v>
+        <v>79.41822050587953</v>
       </c>
       <c r="AC19">
-        <v>5.26</v>
+        <v>11.65</v>
       </c>
       <c r="AD19">
-        <v>4.41</v>
+        <v>3.2</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.07049999999999999</v>
+        <v>0.0688</v>
       </c>
       <c r="AF19" t="s">
         <v>159</v>
       </c>
       <c r="AG19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH19" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AI19">
+        <v>19</v>
+      </c>
+      <c r="AJ19">
+        <v>5</v>
+      </c>
+      <c r="AK19">
         <v>14</v>
       </c>
-      <c r="AJ19">
-        <v>4</v>
-      </c>
-      <c r="AK19">
-        <v>9</v>
-      </c>
       <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="2">
         <v>1</v>
       </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AP19" s="2">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="AQ19" s="2">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="AR19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="2">
-        <v>0.9285714285714286</v>
-      </c>
       <c r="AU19" s="2">
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="AW19" s="2">
-        <v>-0.01051329622758198</v>
+        <v>-0.1343240513634396</v>
       </c>
       <c r="AX19" s="1">
-        <v>121.71429</v>
+        <v>110.06167</v>
       </c>
       <c r="AY19" s="2">
-        <v>0.1580256885971172</v>
+        <v>0.05864156206415624</v>
       </c>
       <c r="AZ19" s="1">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="BA19" s="2">
-        <v>0.2368583797155225</v>
+        <v>0.2023277064396672</v>
       </c>
       <c r="BB19" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:55">
@@ -4099,25 +4120,25 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="1">
-        <v>161.155</v>
+        <v>161.38</v>
       </c>
       <c r="H20">
-        <v>15.77</v>
+        <v>15.79</v>
       </c>
       <c r="I20">
         <v>97.86</v>
@@ -4129,46 +4150,46 @@
         <v>165.4782</v>
       </c>
       <c r="L20" s="2">
-        <v>-0.02612549568462786</v>
+        <v>-0.02476579996640036</v>
       </c>
       <c r="M20" s="1">
         <v>144.4245</v>
       </c>
       <c r="N20" s="2">
-        <v>0.1158425336421453</v>
+        <v>0.1174004410609003</v>
       </c>
       <c r="O20">
         <v>63.3</v>
       </c>
       <c r="P20" s="2">
-        <v>1.545892575039495</v>
+        <v>1.549447077409163</v>
       </c>
       <c r="Q20">
-        <v>-0.2169331846610589</v>
+        <v>-0.2149393695569017</v>
       </c>
       <c r="R20">
-        <v>-0.07799145977223845</v>
+        <v>-0.07759269675140702</v>
       </c>
       <c r="S20">
-        <v>45.79702325845919</v>
+        <v>45.82247564426781</v>
       </c>
       <c r="T20">
-        <v>31.86</v>
+        <v>31.87</v>
       </c>
       <c r="U20">
         <v>26.88</v>
       </c>
       <c r="V20">
-        <v>-2.766385037954096</v>
+        <v>-2.751304854741838</v>
       </c>
       <c r="W20">
-        <v>39.43391003691124</v>
+        <v>39.37356834228133</v>
       </c>
       <c r="X20">
         <v>5.874975382458813</v>
       </c>
       <c r="Y20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Z20" s="1">
         <v>170.1369990030924</v>
@@ -4189,13 +4210,13 @@
         <v>0.0994</v>
       </c>
       <c r="AF20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AG20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AH20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AI20">
         <v>15</v>
@@ -4240,69 +4261,132 @@
         <v>155</v>
       </c>
       <c r="AW20" s="2">
-        <v>-0.03819304396388571</v>
+        <v>-0.0395340190853885</v>
       </c>
       <c r="AX20" s="1">
         <v>183.15385</v>
       </c>
       <c r="AY20" s="2">
-        <v>0.1365073997083553</v>
+        <v>0.1349228528937911</v>
       </c>
       <c r="AZ20" s="1">
         <v>211</v>
       </c>
       <c r="BA20" s="2">
-        <v>0.3092985014427104</v>
+        <v>0.3074730449869873</v>
       </c>
       <c r="BB20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:55">
       <c r="A21" t="s">
         <v>74</v>
       </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
       <c r="G21" s="1">
-        <v>0.22</v>
+        <v>266.37</v>
+      </c>
+      <c r="H21">
+        <v>13.26</v>
+      </c>
+      <c r="I21">
+        <v>49.78</v>
       </c>
       <c r="J21">
-        <v>23.45</v>
+        <v>48.6</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>223.675</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.1908796244551246</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>188.76746</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.4111012565407195</v>
+      </c>
+      <c r="O21">
+        <v>83.78</v>
+      </c>
+      <c r="P21" s="2">
+        <v>2.179398424444975</v>
+      </c>
+      <c r="Q21">
+        <v>10.40385703350464</v>
+      </c>
+      <c r="R21">
+        <v>10.04273422394021</v>
+      </c>
+      <c r="S21">
+        <v>75.2731285317582</v>
+      </c>
+      <c r="T21">
+        <v>89.39</v>
+      </c>
+      <c r="U21">
+        <v>85.34</v>
+      </c>
+      <c r="V21">
+        <v>5.251301244657268</v>
+      </c>
+      <c r="W21">
+        <v>78.04023367484312</v>
+      </c>
+      <c r="X21">
+        <v>7.326656992955203</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>266.0663365681966</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>277.5943174797076</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>254.5383556566856</v>
+      </c>
+      <c r="AC21">
+        <v>4.75</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>5.79</v>
       </c>
       <c r="AE21" s="2">
-        <v>0</v>
+        <v>0.1338</v>
       </c>
       <c r="AF21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AG21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AH21" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -4310,127 +4394,76 @@
       <c r="AN21">
         <v>0</v>
       </c>
+      <c r="AO21" s="2">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>0</v>
+      </c>
       <c r="AV21" s="1">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AW21" s="2">
-        <v>-1</v>
+        <v>0.03239854337950969</v>
       </c>
       <c r="AX21" s="1">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="AY21" s="2">
-        <v>-1</v>
+        <v>0.1149904268498705</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="BA21" s="2">
-        <v>-1</v>
+        <v>0.1450238390209107</v>
       </c>
       <c r="BB21" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BC21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:55">
       <c r="A22" t="s">
         <v>75</v>
       </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" t="s">
-        <v>125</v>
-      </c>
       <c r="G22" s="1">
-        <v>2.07</v>
-      </c>
-      <c r="H22">
-        <v>0.04</v>
-      </c>
-      <c r="I22">
-        <v>20.4</v>
-      </c>
-      <c r="J22">
-        <v>4.03</v>
+        <v>0.2941</v>
       </c>
       <c r="K22" s="1">
-        <v>1.6894</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.2252870841718952</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>1.60685</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.2882347449979774</v>
-      </c>
-      <c r="O22">
-        <v>2.35</v>
-      </c>
-      <c r="P22" s="2">
-        <v>-0.1191489361702129</v>
-      </c>
-      <c r="Q22">
-        <v>0.101949370547451</v>
-      </c>
-      <c r="R22">
-        <v>0.07512937056712321</v>
-      </c>
-      <c r="S22">
-        <v>74.1748697504529</v>
-      </c>
-      <c r="T22">
-        <v>84.92</v>
-      </c>
-      <c r="U22">
-        <v>85.79000000000001</v>
-      </c>
-      <c r="V22">
-        <v>17.61363320791522</v>
-      </c>
-      <c r="W22">
-        <v>89.19089340333983</v>
-      </c>
-      <c r="X22">
-        <v>0.1306805807936638</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>2.017333308855693</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>2.153071986873588</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>1.881594630837798</v>
-      </c>
-      <c r="AC22">
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2">
-        <v>0.0011</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>161</v>
+        <v>0</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>172</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -4469,10 +4502,10 @@
         <v>-1</v>
       </c>
       <c r="BB22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:55">
@@ -4480,28 +4513,31 @@
         <v>76</v>
       </c>
       <c r="G23" s="1">
-        <v>10.025</v>
-      </c>
-      <c r="H23">
-        <v>0.4</v>
+        <v>0.22</v>
+      </c>
+      <c r="J23">
+        <v>23.45</v>
       </c>
       <c r="K23" s="1">
-        <v>10.035</v>
-      </c>
-      <c r="L23" s="2">
-        <v>-0.0009965122072745178</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>10.035</v>
-      </c>
-      <c r="N23" s="2">
-        <v>-0.0009965122072745178</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>172</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -4540,10 +4576,10 @@
         <v>-1</v>
       </c>
       <c r="BB23" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="BC23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:55">
@@ -4551,10 +4587,10 @@
         <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G24" s="1">
         <v>10.09</v>
@@ -4590,13 +4626,13 @@
         <v>0</v>
       </c>
       <c r="AF24" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AG24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AH24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -4635,99 +4671,39 @@
         <v>-1</v>
       </c>
       <c r="BB24" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BC24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:55">
       <c r="A25" t="s">
         <v>78</v>
       </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
       <c r="G25" s="1">
-        <v>0.7599</v>
+        <v>10.025</v>
       </c>
       <c r="H25">
-        <v>0.02</v>
-      </c>
-      <c r="I25">
-        <v>31.62</v>
-      </c>
-      <c r="J25">
-        <v>18.48</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="1">
-        <v>0.9012</v>
+        <v>10.035</v>
       </c>
       <c r="L25" s="2">
-        <v>-0.1567909454061251</v>
+        <v>-0.0009965122072745178</v>
       </c>
       <c r="M25" s="1">
-        <v>0.8909</v>
+        <v>10.035</v>
       </c>
       <c r="N25" s="2">
-        <v>-0.1470423167583343</v>
-      </c>
-      <c r="O25">
-        <v>1.31</v>
-      </c>
-      <c r="P25" s="2">
-        <v>-0.4199236641221374</v>
-      </c>
-      <c r="Q25">
-        <v>-0.03653205840024798</v>
-      </c>
-      <c r="R25">
-        <v>-0.03049862579661913</v>
-      </c>
-      <c r="S25">
-        <v>33.4524713398702</v>
-      </c>
-      <c r="T25">
-        <v>15.72</v>
-      </c>
-      <c r="U25">
-        <v>21.24</v>
-      </c>
-      <c r="V25">
-        <v>-14.61797909176182</v>
-      </c>
-      <c r="W25">
-        <v>35.98248102286345</v>
-      </c>
-      <c r="X25">
-        <v>0.04336409818720617</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>0.7649999896685283</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>0.813242580806534</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>0.7167573985305227</v>
-      </c>
-      <c r="AC25">
-        <v>0.08</v>
+        <v>-0.0009965122072745178</v>
       </c>
       <c r="AD25">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="2">
-        <v>0.010299999</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -4766,36 +4742,108 @@
         <v>-1</v>
       </c>
       <c r="BB25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC25" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:55">
       <c r="A26" t="s">
         <v>79</v>
       </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
       <c r="G26" s="1">
-        <v>0.2941</v>
+        <v>2.07</v>
+      </c>
+      <c r="H26">
+        <v>0.04</v>
+      </c>
+      <c r="I26">
+        <v>20.4</v>
+      </c>
+      <c r="J26">
+        <v>4.03</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1.6894</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.2252870841718952</v>
       </c>
       <c r="M26" s="1">
+        <v>1.60685</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.2882347449979774</v>
+      </c>
+      <c r="O26">
+        <v>2.35</v>
+      </c>
+      <c r="P26" s="2">
+        <v>-0.1191489361702129</v>
+      </c>
+      <c r="Q26">
+        <v>0.101949370547451</v>
+      </c>
+      <c r="R26">
+        <v>0.07512937056712321</v>
+      </c>
+      <c r="S26">
+        <v>74.1748697504529</v>
+      </c>
+      <c r="T26">
+        <v>84.92</v>
+      </c>
+      <c r="U26">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="V26">
+        <v>17.61363320791522</v>
+      </c>
+      <c r="W26">
+        <v>89.16675660726033</v>
+      </c>
+      <c r="X26">
+        <v>0.1306805807936638</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>2.017333308855693</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>2.153071986873588</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>1.881594630837798</v>
+      </c>
+      <c r="AC26">
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>168</v>
+        <v>0.0011</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>165</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -4834,10 +4882,10 @@
         <v>-1</v>
       </c>
       <c r="BB26" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:55">
@@ -4845,10 +4893,10 @@
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G27" s="1">
         <v>10.5</v>
@@ -4884,13 +4932,13 @@
         <v>0</v>
       </c>
       <c r="AF27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AG27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AH27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -4929,10 +4977,10 @@
         <v>-1</v>
       </c>
       <c r="BB27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BC27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:55">
@@ -4940,115 +4988,100 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G28" s="1">
-        <v>26.33</v>
+        <v>0.7599</v>
       </c>
       <c r="H28">
-        <v>1.48</v>
+        <v>0.02</v>
       </c>
       <c r="I28">
-        <v>56.14</v>
+        <v>31.62</v>
       </c>
       <c r="J28">
-        <v>52.55</v>
+        <v>18.48</v>
       </c>
       <c r="K28" s="1">
-        <v>16.1987</v>
+        <v>0.9012</v>
       </c>
       <c r="L28" s="2">
-        <v>0.6254390784445666</v>
+        <v>-0.1567909454061251</v>
       </c>
       <c r="M28" s="1">
-        <v>21.9501</v>
+        <v>0.8909</v>
       </c>
       <c r="N28" s="2">
-        <v>0.1995389542644452</v>
+        <v>-0.1470423167583343</v>
       </c>
       <c r="O28">
-        <v>10.21</v>
+        <v>1.31</v>
       </c>
       <c r="P28" s="2">
-        <v>1.578844270323212</v>
+        <v>-0.4199236641221374</v>
       </c>
       <c r="Q28">
-        <v>2.151831045564684</v>
+        <v>-0.03653205840024798</v>
       </c>
       <c r="R28">
-        <v>1.156514226821794</v>
+        <v>-0.03049862579661913</v>
       </c>
       <c r="S28">
-        <v>74.48596425638888</v>
+        <v>33.4524713398702</v>
       </c>
       <c r="T28">
-        <v>72.17</v>
+        <v>15.72</v>
       </c>
       <c r="U28">
-        <v>58.64</v>
+        <v>21.24</v>
       </c>
       <c r="V28">
-        <v>56.07586611656941</v>
+        <v>-14.61797909176182</v>
       </c>
       <c r="W28">
-        <v>81.74586858327288</v>
+        <v>35.98248102286345</v>
       </c>
       <c r="X28">
-        <v>2.066563278950431</v>
+        <v>0.04336409818720617</v>
       </c>
       <c r="Y28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z28" s="1">
-        <v>26.19666665395101</v>
+        <v>0.7649999896685283</v>
       </c>
       <c r="AA28" s="1">
-        <v>32.27210086519781</v>
+        <v>0.813242580806534</v>
       </c>
       <c r="AB28" s="1">
-        <v>20.1212324427042</v>
+        <v>0.7167573985305227</v>
       </c>
       <c r="AC28">
-        <v>12.01</v>
+        <v>0.08</v>
       </c>
       <c r="AD28">
-        <v>3</v>
+        <v>6.06</v>
       </c>
       <c r="AE28" s="2">
-        <v>0.2233</v>
+        <v>0.010299999</v>
       </c>
       <c r="AF28" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -5056,50 +5089,29 @@
       <c r="AN28">
         <v>0</v>
       </c>
-      <c r="AO28" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AU28" s="2">
-        <v>0</v>
-      </c>
       <c r="AV28" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="2">
-        <v>-0.5062666160273452</v>
+        <v>-1</v>
       </c>
       <c r="AX28" s="1">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="2">
-        <v>0.1849601215343715</v>
+        <v>-1</v>
       </c>
       <c r="AZ28" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="2">
-        <v>0.89897455374098</v>
+        <v>-1</v>
       </c>
       <c r="BB28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BC28" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:55">
@@ -5107,166 +5119,333 @@
         <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G29" s="1">
-        <v>11.17</v>
+        <v>26.475</v>
       </c>
       <c r="H29">
-        <v>7.37</v>
+        <v>1.49</v>
       </c>
       <c r="I29">
+        <v>56.14</v>
+      </c>
+      <c r="J29">
+        <v>52.55</v>
+      </c>
+      <c r="K29" s="1">
+        <v>16.1987</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.6343904140455717</v>
+      </c>
+      <c r="M29" s="1">
+        <v>21.9501</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.2061448467205162</v>
+      </c>
+      <c r="O29">
+        <v>10.21</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1.593046033300686</v>
+      </c>
+      <c r="Q29">
+        <v>2.162640158722123</v>
+      </c>
+      <c r="R29">
+        <v>1.158676049453282</v>
+      </c>
+      <c r="S29">
+        <v>74.70377898563767</v>
+      </c>
+      <c r="T29">
+        <v>72.3</v>
+      </c>
+      <c r="U29">
+        <v>58.66</v>
+      </c>
+      <c r="V29">
+        <v>56.87906675369392</v>
+      </c>
+      <c r="W29">
+        <v>81.79568758755698</v>
+      </c>
+      <c r="X29">
+        <v>2.066563278950431</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>26.24183330535889</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>32.33480370288113</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>20.14886290783665</v>
+      </c>
+      <c r="AC29">
+        <v>12.01</v>
+      </c>
+      <c r="AD29">
+        <v>3</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>0.2233</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI29">
+        <v>5</v>
+      </c>
+      <c r="AJ29">
+        <v>2</v>
+      </c>
+      <c r="AK29">
+        <v>2</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>-0.5089707271010387</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>0.178470254957507</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>0.8885741265344663</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="1">
+        <v>11.1651</v>
+      </c>
+      <c r="H30">
+        <v>7.36</v>
+      </c>
+      <c r="I30">
         <v>659.51</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>653.23</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <v>10.826</v>
       </c>
-      <c r="L29" s="2">
-        <v>0.03177535562534634</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="L30" s="2">
+        <v>0.0313227415481249</v>
+      </c>
+      <c r="M30" s="1">
         <v>13.2092</v>
       </c>
-      <c r="N29" s="2">
-        <v>-0.1543772522181509</v>
-      </c>
-      <c r="O29">
+      <c r="N30" s="2">
+        <v>-0.1547482057959603</v>
+      </c>
+      <c r="O30">
         <v>14.57</v>
       </c>
-      <c r="P29" s="2">
-        <v>-0.2333562113932739</v>
-      </c>
-      <c r="Q29">
-        <v>-0.04926784727078903</v>
-      </c>
-      <c r="R29">
-        <v>-0.03963990981627033</v>
-      </c>
-      <c r="S29">
-        <v>51.16412528492141</v>
-      </c>
-      <c r="T29">
+      <c r="P30" s="2">
+        <v>-0.2336925188743994</v>
+      </c>
+      <c r="Q30">
+        <v>-0.04927583531206992</v>
+      </c>
+      <c r="R30">
+        <v>-0.0396415074245265</v>
+      </c>
+      <c r="S30">
+        <v>51.16276079613492</v>
+      </c>
+      <c r="T30">
         <v>32.63</v>
       </c>
-      <c r="U29">
+      <c r="U30">
         <v>28.02</v>
       </c>
-      <c r="V29">
-        <v>-5.057822991887119</v>
-      </c>
-      <c r="W29">
-        <v>61.32713066193326</v>
-      </c>
-      <c r="X29">
+      <c r="V30">
+        <v>-5.058674486795909</v>
+      </c>
+      <c r="W30">
+        <v>61.44394766081772</v>
+      </c>
+      <c r="X30">
         <v>0.4498564032378095</v>
       </c>
-      <c r="Y29" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z29" s="1">
+      <c r="Y30" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z30" s="1">
         <v>10.88266658782959</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AA30" s="1">
         <v>11.49521853860353</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AB30" s="1">
         <v>10.27011463705565</v>
       </c>
-      <c r="AC29">
+      <c r="AC30">
         <v>67.23999999999999</v>
       </c>
-      <c r="AD29">
+      <c r="AD30">
         <v>1.2</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AE30" s="2">
         <v>0.1026</v>
       </c>
-      <c r="AF29" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI29">
+      <c r="AF30" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI30">
         <v>24</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ30">
         <v>3</v>
       </c>
-      <c r="AK29">
+      <c r="AK30">
         <v>10</v>
       </c>
-      <c r="AL29">
+      <c r="AL30">
         <v>10</v>
       </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
         <v>1</v>
       </c>
-      <c r="AO29" s="2">
+      <c r="AO30" s="2">
         <v>0.125</v>
       </c>
-      <c r="AP29" s="2">
+      <c r="AP30" s="2">
         <v>0.4166666666666667</v>
       </c>
-      <c r="AQ29" s="2">
+      <c r="AQ30" s="2">
         <v>0.4166666666666667</v>
       </c>
-      <c r="AR29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="2">
+      <c r="AR30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="2">
         <v>0.04166666666666666</v>
       </c>
-      <c r="AT29" s="2">
+      <c r="AT30" s="2">
         <v>0.5416666666666667</v>
       </c>
-      <c r="AU29" s="2">
+      <c r="AU30" s="2">
         <v>0.04166666666666666</v>
       </c>
-      <c r="AV29" s="1">
+      <c r="AV30" s="1">
         <v>8</v>
       </c>
-      <c r="AW29" s="2">
-        <v>-0.2837958818263205</v>
-      </c>
-      <c r="AX29" s="1">
+      <c r="AW30" s="2">
+        <v>-0.2834815630849702</v>
+      </c>
+      <c r="AX30" s="1">
         <v>13.40043</v>
       </c>
-      <c r="AY29" s="2">
-        <v>0.199680393912265</v>
-      </c>
-      <c r="AZ29" s="1">
+      <c r="AY30" s="2">
+        <v>0.2002068946986592</v>
+      </c>
+      <c r="AZ30" s="1">
         <v>20</v>
       </c>
-      <c r="BA29" s="2">
-        <v>0.7905102954341987</v>
-      </c>
-      <c r="BB29" t="s">
-        <v>173</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>179</v>
+      <c r="BA30" s="2">
+        <v>0.7912960922875746</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
